--- a/currency_rate.xlsx
+++ b/currency_rate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t xml:space="preserve">INPUT date</t>
   </si>
@@ -47,15 +47,19 @@
   </si>
   <si>
     <t xml:space="preserve">EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -122,7 +126,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -136,6 +140,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -156,10 +164,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:E4"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -223,6 +231,101 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2000.1708568</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>45120</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>914.7370429</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>45110</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>999.6361989</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>45097</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1299.6946363</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>45026</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1999.1365333</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>44983</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1999.786002</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
